--- a/ParserCodes/lalr_analysis.xlsx
+++ b/ParserCodes/lalr_analysis.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="States" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ACTION Table" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="GOTO Table" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Transitions" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grammar" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FIRST Sets" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="States" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ACTION Table" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GOTO Table" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitions" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -607,7 +607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,7 +663,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>arg → NUMBER | STRING</t>
+          <t>arg → NUMBER</t>
         </is>
       </c>
     </row>
@@ -673,12 +673,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>args</t>
+          <t>arg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>args → arg ("," arg)*</t>
+          <t>arg → STRING</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>call_stmt</t>
+          <t>args</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>call_stmt → ID "(" args? ")" ";"</t>
+          <t>args → arg ("," arg)*</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>for_stmt</t>
+          <t>call_stmt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
+          <t>call_stmt → ID "(" args? ")" ";"</t>
         </is>
       </c>
     </row>
@@ -718,12 +718,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>program</t>
+          <t>for_stmt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>program → stmt_list</t>
+          <t>for_stmt → "for" ID "=" NUMBER "to" NUMBER ";"</t>
         </is>
       </c>
     </row>
@@ -733,12 +733,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>stmt</t>
+          <t>program</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>stmt → for_stmt</t>
+          <t>program → stmt_list</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>stmt → call_stmt</t>
+          <t>stmt → for_stmt</t>
         </is>
       </c>
     </row>
@@ -763,12 +763,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>stmt_list</t>
+          <t>stmt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>stmt_list → stmt</t>
+          <t>stmt → call_stmt</t>
         </is>
       </c>
     </row>
@@ -782,6 +782,21 @@
         </is>
       </c>
       <c r="C11" t="inlineStr">
+        <is>
+          <t>stmt_list → stmt</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>stmt_list</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>stmt_list → stmt stmt_list</t>
         </is>
@@ -836,7 +851,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -853,7 +868,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>NUMBER, STRING</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1037,7 +1052,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" ht="45" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>State 1</t>
@@ -1045,7 +1060,9 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>[program → stmt_list ·, $]</t>
+          <t>[call_stmt → ID · "(" args? ")" ";", "for"]
+[call_stmt → ID · "(" args? ")" ";", $]
+[call_stmt → ID · "(" args? ")" ";", ID]</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1054,87 +1071,32 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" ht="45" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>State 2</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>[programBar → program ·, $]</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="45" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>State 3</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>[stmt → for_stmt ·, "for"]
 [stmt → for_stmt ·, $]
 [stmt → for_stmt ·, ID]</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>Not merged</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="45" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>State 4</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>[stmt → call_stmt ·, "for"]
-[stmt → call_stmt ·, $]
-[stmt → call_stmt ·, ID]</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="45" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>State 5</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="inlineStr">
-        <is>
-          <t>[call_stmt → ID · "(" args? ")" ";", "for"]
-[call_stmt → ID · "(" args? ")" ";", $]
-[call_stmt → ID · "(" args? ")" ";", ID]</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="240" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>State 6</t>
-        </is>
-      </c>
-      <c r="B8" s="11" t="inlineStr">
+    <row r="5" ht="240" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>State 3</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";", "for"]
 [call_stmt → · ID "(" args? ")" ";", $]
@@ -1154,23 +1116,76 @@
 [stmt_list → · stmt, $]</t>
         </is>
       </c>
-      <c r="C8" s="11" t="inlineStr">
+      <c r="C5" s="11" t="inlineStr">
         <is>
           <t>Not merged</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="45" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>State 7</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="inlineStr">
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>State 4</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>[program → stmt_list ·, $]</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>State 5</t>
+        </is>
+      </c>
+      <c r="B7" s="11" t="inlineStr">
         <is>
           <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", "for"]
 [for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", $]
 [for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", ID]</t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>State 6</t>
+        </is>
+      </c>
+      <c r="B8" s="11" t="inlineStr">
+        <is>
+          <t>[stmt → call_stmt ·, "for"]
+[stmt → call_stmt ·, $]
+[stmt → call_stmt ·, ID]</t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>State 7</t>
+        </is>
+      </c>
+      <c r="B9" s="11" t="inlineStr">
+        <is>
+          <t>[programBar → program ·, $]</t>
         </is>
       </c>
       <c r="C9" s="11" t="inlineStr">
@@ -1397,7 +1412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,7 +1434,6 @@
     <col width="12" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="12" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1493,11 +1507,6 @@
           <t>args?</t>
         </is>
       </c>
-      <c r="O1" s="12" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n">
@@ -1525,7 +1534,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="G2" s="13" t="inlineStr">
@@ -1545,7 +1554,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
@@ -1564,11 +1573,6 @@
         </is>
       </c>
       <c r="N2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O2" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1578,9 +1582,9 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s8</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -1608,9 +1612,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>r4</t>
+      <c r="H3" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I3" s="13" t="inlineStr">
@@ -1639,11 +1643,6 @@
         </is>
       </c>
       <c r="N3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O3" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1673,9 +1672,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F4" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
       <c r="G4" s="13" t="inlineStr">
@@ -1685,7 +1684,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>accept</t>
+          <t>r6</t>
         </is>
       </c>
       <c r="I4" s="13" t="inlineStr">
@@ -1693,9 +1692,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J4" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>r6</t>
         </is>
       </c>
       <c r="K4" s="13" t="inlineStr">
@@ -1714,11 +1713,6 @@
         </is>
       </c>
       <c r="N4" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O4" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1750,7 +1744,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>r5</t>
+          <t>s5</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
@@ -1760,7 +1754,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>r5</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
@@ -1770,7 +1764,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>r5</t>
+          <t>s1</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
@@ -1789,11 +1783,6 @@
         </is>
       </c>
       <c r="N5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O5" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1823,9 +1812,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>r6</t>
+      <c r="F6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
@@ -1835,7 +1824,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>r6</t>
+          <t>r5</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -1843,9 +1832,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>r6</t>
+      <c r="J6" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
@@ -1864,11 +1853,6 @@
         </is>
       </c>
       <c r="N6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O6" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1878,9 +1862,9 @@
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>s8</t>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -1918,9 +1902,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>s10</t>
         </is>
       </c>
       <c r="K7" s="13" t="inlineStr">
@@ -1939,11 +1923,6 @@
         </is>
       </c>
       <c r="N7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O7" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1975,7 +1954,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>s7</t>
+          <t>r7</t>
         </is>
       </c>
       <c r="G8" s="13" t="inlineStr">
@@ -1995,7 +1974,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>s5</t>
+          <t>r7</t>
         </is>
       </c>
       <c r="K8" s="13" t="inlineStr">
@@ -2014,11 +1993,6 @@
         </is>
       </c>
       <c r="N8" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2058,9 +2032,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>accept</t>
         </is>
       </c>
       <c r="I9" s="13" t="inlineStr">
@@ -2068,9 +2042,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>s10</t>
+      <c r="J9" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K9" s="13" t="inlineStr">
@@ -2089,11 +2063,6 @@
         </is>
       </c>
       <c r="N9" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O9" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2168,11 +2137,6 @@
           <t>s11</t>
         </is>
       </c>
-      <c r="O10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n">
@@ -2210,7 +2174,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>r8</t>
+          <t>r9</t>
         </is>
       </c>
       <c r="I11" s="13" t="inlineStr">
@@ -2239,11 +2203,6 @@
         </is>
       </c>
       <c r="N11" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O11" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2318,11 +2277,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n">
@@ -2393,11 +2347,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n">
@@ -2468,11 +2417,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n">
@@ -2543,11 +2487,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n">
@@ -2618,11 +2557,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n">
@@ -2650,7 +2584,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="G17" s="13" t="inlineStr">
@@ -2660,7 +2594,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="I17" s="13" t="inlineStr">
@@ -2670,7 +2604,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>r2</t>
+          <t>r3</t>
         </is>
       </c>
       <c r="K17" s="13" t="inlineStr">
@@ -2689,11 +2623,6 @@
         </is>
       </c>
       <c r="N17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2768,11 +2697,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O18" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n">
@@ -2843,11 +2767,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="O19" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n">
@@ -2875,7 +2794,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="G20" s="13" t="inlineStr">
@@ -2885,7 +2804,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="I20" s="13" t="inlineStr">
@@ -2895,7 +2814,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>r3</t>
+          <t>r4</t>
         </is>
       </c>
       <c r="K20" s="13" t="inlineStr">
@@ -2914,11 +2833,6 @@
         </is>
       </c>
       <c r="N20" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O20" s="13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -3016,24 +2930,24 @@
         </is>
       </c>
       <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
         <v>4</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3140,15 +3054,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
@@ -3160,15 +3070,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I5" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3275,11 +3181,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
+      <c r="D8" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F8" s="13" t="inlineStr">
         <is>
@@ -3291,11 +3201,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
+      <c r="H8" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I8" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -3889,7 +3803,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3902,7 +3816,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3915,7 +3829,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3928,7 +3842,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3941,7 +3855,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3954,7 +3868,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3967,12 +3881,12 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3985,7 +3899,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3993,12 +3907,12 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4006,25 +3920,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>call_stmt</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>6</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>call_stmt</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4032,12 +3946,12 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4045,12 +3959,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4063,7 +3977,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>

--- a/ParserCodes/lalr_analysis.xlsx
+++ b/ParserCodes/lalr_analysis.xlsx
@@ -1052,7 +1052,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1">
+    <row r="3" ht="15" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>State 1</t>
@@ -1060,9 +1060,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>[call_stmt → ID · "(" args? ")" ";", "for"]
-[call_stmt → ID · "(" args? ")" ";", $]
-[call_stmt → ID · "(" args? ")" ";", ID]</t>
+          <t>[program → stmt_list ·, $]</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1090,13 +1088,32 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="240" customHeight="1">
+    <row r="5" ht="45" customHeight="1">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>State 3</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", "for"]
+[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", $]
+[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", ID]</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="240" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>State 4</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → · ID "(" args? ")" ";", "for"]
 [call_stmt → · ID "(" args? ")" ";", $]
@@ -1116,23 +1133,6 @@
 [stmt_list → · stmt, $]</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>State 4</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>[program → stmt_list ·, $]</t>
-        </is>
-      </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
           <t>Not merged</t>
@@ -1147,9 +1147,9 @@
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", "for"]
-[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", $]
-[for_stmt → "for" · ID "=" NUMBER "to" NUMBER ";", ID]</t>
+          <t>[call_stmt → ID · "(" args? ")" ";", "for"]
+[call_stmt → ID · "(" args? ")" ";", $]
+[call_stmt → ID · "(" args? ")" ";", ID]</t>
         </is>
       </c>
       <c r="C7" s="11" t="inlineStr">
@@ -1202,47 +1202,47 @@
       </c>
       <c r="B10" s="11" t="inlineStr">
         <is>
+          <t>[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", "for"]
+[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", $]
+[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", ID]</t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>State 9</t>
+        </is>
+      </c>
+      <c r="B11" s="11" t="inlineStr">
+        <is>
+          <t>[stmt_list → stmt stmt_list ·, $]</t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="45" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>State 10</t>
+        </is>
+      </c>
+      <c r="B12" s="11" t="inlineStr">
+        <is>
           <t>[call_stmt → ID "(" · args? ")" ";", "for"]
 [call_stmt → ID "(" · args? ")" ";", $]
 [call_stmt → ID "(" · args? ")" ";", ID]</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>State 9</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="inlineStr">
-        <is>
-          <t>[stmt_list → stmt stmt_list ·, $]</t>
-        </is>
-      </c>
-      <c r="C11" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="45" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>State 10</t>
-        </is>
-      </c>
-      <c r="B12" s="11" t="inlineStr">
-        <is>
-          <t>[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", "for"]
-[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", $]
-[for_stmt → "for" ID · "=" NUMBER "to" NUMBER ";", ID]</t>
-        </is>
-      </c>
       <c r="C12" s="11" t="inlineStr">
         <is>
           <t>Not merged</t>
@@ -1256,31 +1256,31 @@
         </is>
       </c>
       <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";", "for"]
+[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";", $]
+[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";", ID]</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="45" customHeight="1">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>State 12</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → ID "(" args? · ")" ";", "for"]
 [call_stmt → ID "(" args? · ")" ";", $]
 [call_stmt → ID "(" args? · ")" ";", ID]</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="45" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>State 12</t>
-        </is>
-      </c>
-      <c r="B14" s="11" t="inlineStr">
-        <is>
-          <t>[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";", "for"]
-[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";", $]
-[for_stmt → "for" ID "=" · NUMBER "to" NUMBER ";", ID]</t>
-        </is>
-      </c>
       <c r="C14" s="11" t="inlineStr">
         <is>
           <t>Not merged</t>
@@ -1294,31 +1294,31 @@
         </is>
       </c>
       <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";", "for"]
+[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";", $]
+[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";", ID]</t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="45" customHeight="1">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>State 14</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → ID "(" args? ")" · ";", "for"]
 [call_stmt → ID "(" args? ")" · ";", $]
 [call_stmt → ID "(" args? ")" · ";", ID]</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="45" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>State 14</t>
-        </is>
-      </c>
-      <c r="B16" s="11" t="inlineStr">
-        <is>
-          <t>[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";", "for"]
-[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";", $]
-[for_stmt → "for" ID "=" NUMBER · "to" NUMBER ";", ID]</t>
-        </is>
-      </c>
       <c r="C16" s="11" t="inlineStr">
         <is>
           <t>Not merged</t>
@@ -1332,29 +1332,29 @@
         </is>
       </c>
       <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";", "for"]
+[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";", $]
+[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";", ID]</t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="inlineStr">
+        <is>
+          <t>Not merged</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="45" customHeight="1">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>State 16</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
         <is>
           <t>[call_stmt → ID "(" args? ")" ";" ·, "for"]
 [call_stmt → ID "(" args? ")" ";" ·, $]
 [call_stmt → ID "(" args? ")" ";" ·, ID]</t>
-        </is>
-      </c>
-      <c r="C17" s="11" t="inlineStr">
-        <is>
-          <t>Not merged</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="45" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>State 16</t>
-        </is>
-      </c>
-      <c r="B18" s="11" t="inlineStr">
-        <is>
-          <t>[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";", "for"]
-[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";", $]
-[for_stmt → "for" ID "=" NUMBER "to" · NUMBER ";", ID]</t>
         </is>
       </c>
       <c r="C18" s="11" t="inlineStr">
@@ -1534,27 +1534,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>s3</t>
+        </is>
+      </c>
+      <c r="G2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I2" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>s5</t>
-        </is>
-      </c>
-      <c r="G2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I2" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>s1</t>
         </is>
       </c>
       <c r="K2" s="13" t="inlineStr">
@@ -1582,9 +1582,9 @@
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>s8</t>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -1612,9 +1612,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H3" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>r5</t>
         </is>
       </c>
       <c r="I3" s="13" t="inlineStr">
@@ -1742,9 +1742,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s5</t>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" s="13" t="inlineStr">
@@ -1752,9 +1752,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>r8</t>
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I5" s="13" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>s8</t>
         </is>
       </c>
       <c r="K5" s="13" t="inlineStr">
@@ -1812,9 +1812,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>s3</t>
         </is>
       </c>
       <c r="G6" s="13" t="inlineStr">
@@ -1824,7 +1824,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>r5</t>
+          <t>r8</t>
         </is>
       </c>
       <c r="I6" s="13" t="inlineStr">
@@ -1832,9 +1832,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>s5</t>
         </is>
       </c>
       <c r="K6" s="13" t="inlineStr">
@@ -1862,9 +1862,9 @@
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>s10</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -1902,9 +1902,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>s10</t>
+      <c r="J7" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="K7" s="13" t="inlineStr">
@@ -2087,9 +2087,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E10" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s11</t>
         </is>
       </c>
       <c r="F10" s="13" t="inlineStr">
@@ -2132,9 +2132,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>s11</t>
+      <c r="N10" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2227,54 +2227,54 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>s12</t>
-        </is>
-      </c>
-      <c r="F12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -2287,49 +2287,49 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J13" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>s13</t>
-        </is>
-      </c>
-      <c r="D13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K13" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="L13" s="13" t="inlineStr">
@@ -2357,9 +2357,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C14" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>s14</t>
         </is>
       </c>
       <c r="D14" s="13" t="inlineStr">
@@ -2397,9 +2397,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>s14</t>
+      <c r="K14" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L14" s="13" t="inlineStr">
@@ -2432,24 +2432,24 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>s15</t>
-        </is>
-      </c>
-      <c r="E15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G15" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="H15" s="13" t="inlineStr">
@@ -2502,9 +2502,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>s16</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
@@ -2517,9 +2517,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>s16</t>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="H16" s="13" t="inlineStr">
@@ -2582,9 +2582,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>r3</t>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="G17" s="13" t="inlineStr">
@@ -2592,9 +2592,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>r3</t>
+      <c r="H17" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="I17" s="13" t="inlineStr">
@@ -2602,14 +2602,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>r3</t>
-        </is>
-      </c>
-      <c r="K17" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="J17" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>s17</t>
         </is>
       </c>
       <c r="L17" s="13" t="inlineStr">
@@ -2652,9 +2652,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>r3</t>
         </is>
       </c>
       <c r="G18" s="13" t="inlineStr">
@@ -2662,9 +2662,9 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H18" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>r3</t>
         </is>
       </c>
       <c r="I18" s="13" t="inlineStr">
@@ -2672,14 +2672,14 @@
           <t>-</t>
         </is>
       </c>
-      <c r="J18" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>s17</t>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>r3</t>
+        </is>
+      </c>
+      <c r="K18" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
       <c r="L18" s="13" t="inlineStr">
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3054,11 +3054,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
+      <c r="D5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="F5" s="13" t="inlineStr">
         <is>
@@ -3070,11 +3074,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
+      <c r="H5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I5" s="13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -3091,15 +3099,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
       </c>
       <c r="F6" s="13" t="inlineStr">
         <is>
@@ -3111,15 +3115,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I6" s="13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3803,7 +3803,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3868,7 +3868,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3881,16 +3881,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"("</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3899,20 +3899,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>"for"</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>3</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>"for"</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3920,12 +3920,12 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3959,12 +3959,12 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>"("</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>args?</t>
+          <t>"="</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"="</t>
+          <t>args?</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>")"</t>
+          <t>NUMBER</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NUMBER</t>
+          <t>")"</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4046,7 +4046,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>";"</t>
+          <t>"to"</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"to"</t>
+          <t>";"</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4068,7 +4068,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
